--- a/tables/mnist_basic_5.xlsx
+++ b/tables/mnist_basic_5.xlsx
@@ -1373,7 +1373,9 @@
       <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>99.7</v>
+      </c>
       <c r="D22" t="n">
         <v>99.7</v>
       </c>
@@ -1389,7 +1391,9 @@
       <c r="H22" t="n">
         <v>97.3</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="J22" t="n">
         <v>9.5</v>
       </c>
@@ -1411,7 +1415,9 @@
       <c r="B23" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>99.7</v>
+      </c>
       <c r="D23" t="n">
         <v>99.8</v>
       </c>
@@ -1427,7 +1433,9 @@
       <c r="H23" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J23" t="n">
         <v>9.5</v>
       </c>
@@ -1449,7 +1457,9 @@
       <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
       <c r="D24" t="n">
         <v>100</v>
       </c>
@@ -1465,7 +1475,9 @@
       <c r="H24" t="n">
         <v>92.5</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J24" t="n">
         <v>9.5</v>
       </c>

--- a/tables/mnist_basic_5.xlsx
+++ b/tables/mnist_basic_5.xlsx
@@ -612,10 +612,10 @@
         <v>87.59999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.8</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J5" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -675,7 +675,7 @@
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -684,10 +684,10 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
       <c r="F6" t="n">
-        <v>71.3</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J6" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M6" t="n">
         <v>0.2</v>
@@ -717,7 +717,7 @@
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -729,7 +729,7 @@
         <v>0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>74.8</v>
+        <v>71.3</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -738,104 +738,104 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J7" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.6</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="M8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>apgd2</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>44.1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>98.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>48.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="I9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L9" t="n">
         <v>5.800000000000002</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>95</v>
-      </c>
-      <c r="F9" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.199999999999998</v>
       </c>
       <c r="M9" t="n">
         <v>0.2</v>
@@ -847,7 +847,7 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -856,28 +856,28 @@
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>62.2</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>17.7</v>
+        <v>31.3</v>
       </c>
       <c r="G10" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>21.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J10" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
         <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>7.1</v>
+        <v>7.199999999999998</v>
       </c>
       <c r="M10" t="n">
         <v>0.2</v>
@@ -889,83 +889,79 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
         <v>5.800000000000002</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>44.1</v>
       </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="I12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L12" t="n">
         <v>10.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>boundary</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8.4</v>
       </c>
       <c r="M12" t="n">
         <v>0.2</v>
@@ -977,11 +973,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>cw2</t>
+          <t>boundary</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
@@ -993,67 +989,71 @@
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>64.7</v>
       </c>
       <c r="G13" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>82.69999999999997</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="K13" t="n">
         <v>4.8</v>
       </c>
       <c r="L13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>cw2</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>82.69999999999997</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L14" t="n">
         <v>8.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.6</v>
       </c>
       <c r="M14" t="n">
         <v>0.2</v>
@@ -1065,83 +1065,79 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
         <v>94.2</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>28.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>97</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="I16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L16" t="n">
         <v>7.7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>deepfool</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.5</v>
       </c>
       <c r="M16" t="n">
         <v>0.2</v>
@@ -1153,83 +1149,87 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>deepfool</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>fgsm</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C17" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
         <v>99.7</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
         <v>85.3</v>
       </c>
-      <c r="I17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="I18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>0.2</v>
@@ -1241,7 +1241,7 @@
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
@@ -1250,28 +1250,28 @@
         <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>66.2</v>
+        <v>92.2</v>
       </c>
       <c r="F19" t="n">
-        <v>58.6</v>
+        <v>64.8</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J19" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K19" t="n">
         <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>0.2</v>
@@ -1283,7 +1283,7 @@
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1292,28 +1292,28 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>47.1</v>
+        <v>66.2</v>
       </c>
       <c r="F20" t="n">
-        <v>57.4</v>
+        <v>58.6</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J20" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K20" t="n">
         <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M20" t="n">
         <v>0.2</v>
@@ -1325,7 +1325,7 @@
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
@@ -1337,7 +1337,7 @@
         <v>47.1</v>
       </c>
       <c r="F21" t="n">
-        <v>61.5</v>
+        <v>57.4</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -1346,98 +1346,98 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J21" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
       </c>
       <c r="L21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.4</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>100</v>
-      </c>
-      <c r="F22" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n">
-        <v>0.5</v>
       </c>
       <c r="C23" t="n">
         <v>99.7</v>
       </c>
       <c r="D23" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H23" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="J23" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
@@ -1455,119 +1455,119 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>99</v>
+      </c>
+      <c r="G24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="C25" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>96.8</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>92.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="I25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.1</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>watermark</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C25" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>100</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="C26" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>99</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="I25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F26" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>91.7</v>
-      </c>
       <c r="I26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J26" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K26" t="n">
         <v>4.8</v>
@@ -1585,37 +1585,37 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C27" t="n">
-        <v>84.3</v>
+        <v>95.5</v>
       </c>
       <c r="D27" t="n">
-        <v>88.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E27" t="n">
-        <v>90.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>75.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="G27" t="n">
-        <v>73.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>73.2</v>
+        <v>91.7</v>
       </c>
       <c r="I27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J27" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="K27" t="n">
         <v>4.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0.2</v>
@@ -1628,12 +1628,12 @@
   <mergeCells count="8">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/mnist_basic_5.xlsx
+++ b/tables/mnist_basic_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,10 +612,10 @@
         <v>87.59999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.8</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.8</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -826,10 +826,10 @@
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.8</v>
@@ -868,10 +868,10 @@
         <v>21.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>4.8</v>
@@ -910,10 +910,10 @@
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.8</v>
@@ -952,10 +952,10 @@
         <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.8</v>
@@ -976,9 +976,7 @@
           <t>boundary</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" t="n">
         <v>100</v>
       </c>
@@ -1044,10 +1042,10 @@
         <v>82.69999999999997</v>
       </c>
       <c r="I14" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
         <v>4.8</v>
@@ -1086,10 +1084,10 @@
         <v>13.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.8</v>
@@ -1128,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>4.8</v>
@@ -1174,10 +1172,10 @@
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>4.8</v>
@@ -1220,10 +1218,10 @@
         <v>85.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>4.8</v>
@@ -1262,10 +1260,10 @@
         <v>8.200000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
         <v>4.8</v>
@@ -1304,10 +1302,10 @@
         <v>1.1</v>
       </c>
       <c r="I20" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.8</v>
@@ -1346,10 +1344,10 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -1388,10 +1386,10 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4.8</v>
@@ -1413,37 +1411,37 @@
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>99.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="G23" t="n">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>97.3</v>
+        <v>92.5</v>
       </c>
       <c r="I23" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M23" t="n">
         <v>0.2</v>
@@ -1453,33 +1451,37 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>watermark</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C24" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="D24" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="E24" t="n">
         <v>100</v>
       </c>
       <c r="F24" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G24" t="n">
         <v>99</v>
       </c>
-      <c r="G24" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="H24" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
         <v>4.8</v>
@@ -1497,37 +1499,37 @@
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C25" t="n">
-        <v>99.8</v>
+        <v>95</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E25" t="n">
-        <v>99.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>96.8</v>
+        <v>93.7</v>
       </c>
       <c r="G25" t="n">
-        <v>98.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>92.5</v>
+        <v>91.7</v>
       </c>
       <c r="I25" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>4.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0.2</v>
@@ -1536,104 +1538,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>watermark</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D26" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G26" t="n">
-        <v>99</v>
-      </c>
-      <c r="H26" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F27" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
